--- a/tx_admin/src/pc/excel_template/实测区段楼层信息导入.xlsx
+++ b/tx_admin/src/pc/excel_template/实测区段楼层信息导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947"/>
+    <workbookView windowWidth="23040" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="tb_project_floor_information" sheetId="1" r:id="rId1"/>
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>build</t>
-  </si>
-  <si>
-    <t>unitNum</t>
-  </si>
-  <si>
-    <t>unitName</t>
-  </si>
-  <si>
-    <t>undergroundNumber</t>
-  </si>
-  <si>
-    <t>abovegroundNumber</t>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>区段名称</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>栋号</t>
+  </si>
+  <si>
+    <t>单元数</t>
+  </si>
+  <si>
+    <t>单元名称</t>
+  </si>
+  <si>
+    <t>地下层数</t>
+  </si>
+  <si>
+    <t>地上层数</t>
   </si>
   <si>
     <t>中山市人民医院</t>
@@ -64,7 +64,7 @@
     <t>单元八</t>
   </si>
   <si>
-    <t>1</t>
+    <t>单元九</t>
   </si>
 </sst>
 </file>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -98,89 +98,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,9 +111,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +203,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +231,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,79 +249,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,13 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,85 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,51 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,6 +487,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -543,154 +543,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1012,8 +1017,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="B7 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1022,158 +1027,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
     </row>
